--- a/data/trans_camb/P24_8_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_8_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9,65</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,81</t>
+          <t>-9,52; 2,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,29</t>
+          <t>-8,17; 3,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,47</t>
+          <t>-7,89; 3,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 11,95</t>
+          <t>-1,29; 16,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 8,27</t>
+          <t>-5,68; 11,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,85</t>
+          <t>-8,49; 5,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,77</t>
+          <t>-4,26; 9,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,95</t>
+          <t>1,63; 19,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 5,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 10,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 6,18</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 3,43</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 5,75</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 16,0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>-46,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>-23,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,61%</t>
+          <t>-18,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>256,03%</t>
+          <t>111,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-9,56%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>102,63%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,9; 175,52</t>
+          <t>-90,93; 191,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,28; 264,42</t>
+          <t>-74,89; 115,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 346,02</t>
+          <t>-69,71; 114,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,08; 768,77</t>
+          <t>-19,07; 509,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,23; 49,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 34,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 93,62</t>
+          <t>-38,23; 136,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 115,9</t>
+          <t>-47,92; 70,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 41,67</t>
+          <t>-26,08; 116,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 45,09</t>
+          <t>4,38; 252,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 89,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,84; 150,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-45,13; 95,29</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-45,17; 58,91</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-27,81; 89,42</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 235,04</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-3,95</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 0,65</t>
+          <t>-15,48; -0,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,26</t>
+          <t>-15,57; -1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,66</t>
+          <t>-13,78; 0,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,41</t>
+          <t>-14,26; 1,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,49</t>
+          <t>-5,62; 4,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 7,3</t>
+          <t>-6,51; 3,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,18</t>
+          <t>-5,49; 3,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 0,2</t>
+          <t>-1,83; 9,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 0,49</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; -0,23</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,07; 0,65</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 3,86</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,65%</t>
+          <t>-54,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-22,0%</t>
+          <t>-58,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>-43,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>-41,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>-10,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-5,03%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-20,14%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-5,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-26,24%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-32,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-23,45%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-3,82%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,33; 18,59</t>
+          <t>-81,52; -5,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 31,13</t>
+          <t>-82,63; -17,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 77,94</t>
+          <t>-73,81; 13,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,69; 98,45</t>
+          <t>-75,09; 20,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 10,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 8,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 20,84</t>
+          <t>-34,72; 47,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 59,58</t>
+          <t>-39,87; 30,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,28; 3,3</t>
+          <t>-33,15; 38,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 2,1</t>
+          <t>-12,79; 94,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 23,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 48,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-50,59; 6,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-53,65; -2,52</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-49,9; 7,15</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-35,15; 42,77</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,12 +1496,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1223,47 +1511,77 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,48</t>
+          <t>-3,56; 4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,4</t>
+          <t>-4,71; 2,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,13</t>
+          <t>-3,66; 4,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 10,75</t>
+          <t>-5,06; 2,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,87</t>
+          <t>-7,6; 2,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,85</t>
+          <t>-5,91; 3,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,51</t>
+          <t>-5,53; 3,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,89</t>
+          <t>-7,61; 2,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 2,37</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 2,74</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 3,24</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 1,75</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,37%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>121,56%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-27,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>-20,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>-21,07%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-11,2%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-7,17%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-19,53%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 220,36</t>
+          <t>-51,74; 224,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,15; 57,22</t>
+          <t>-64,69; 120,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,86; 148,84</t>
+          <t>-51,84; 168,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 352,7</t>
+          <t>-73,49; 127,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,55; 16,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 48,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 49,35</t>
+          <t>-54,46; 34,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 100,06</t>
+          <t>-43,22; 49,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 42,12</t>
+          <t>-39,22; 51,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 32,12</t>
+          <t>-54,92; 32,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 53,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 129,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-44,74; 43,36</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-37,54; 50,22</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; 57,78</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-50,61; 30,63</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,5</t>
+          <t>-1,45; 4,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,07</t>
+          <t>-1,86; 2,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,26</t>
+          <t>-1,72; 3,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,47</t>
+          <t>-6,18; 0,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 6,51</t>
+          <t>-5,76; 2,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,45</t>
+          <t>-4,46; 3,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 1,41</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 1,56</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 2,29</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>-15,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>-2,85%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-11,82%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-11,29%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 36,07</t>
+          <t>-40,78; 162,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 28,4</t>
+          <t>-48,01; 121,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 73,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,49; 148,96</t>
+          <t>-45,25; 147,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 5,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 5,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 22,16</t>
+          <t>-44,47; 6,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,79; 58,61</t>
+          <t>-43,88; 18,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 5,68</t>
+          <t>-33,21; 29,47</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 26,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,67; 68,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-34,22; 20,73</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-37,54; 22,25</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-27,84; 32,18</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 1,45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 0,87</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 2,97</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 2,97</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 1,03</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 0,89</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,54</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 4,92</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 0,66</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 0,39</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 2,21</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 3,49</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-11,99%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-15,56%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-11,27%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-10,6%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-11,47%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-12,08%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-46,02; 35,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-44,87; 23,88</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-22,71; 75,27</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-26,46; 72,7</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,97; 8,93</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-26,94; 8,42</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,26; 22,74</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 44,56</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-27,39; 10,03</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-26,71; 4,72</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 27,58</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 43,21</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
